--- a/Drone_Data_Experiment_3/NN_round.xlsx
+++ b/Drone_Data_Experiment_3/NN_round.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,7 +455,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-6.772349124354636</v>
+        <v>-0.292598963745573</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -463,7 +463,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.9329958386081159</v>
+        <v>-1.730446341571783</v>
       </c>
       <c r="B4" t="n">
         <v>2</v>
@@ -471,10 +471,18 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.4305196371929318</v>
+        <v>-3.734966921513727</v>
       </c>
       <c r="B5" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>-1.071835998130759</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
